--- a/Russianrealty.xlsx
+++ b/Russianrealty.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16644" windowHeight="6024" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16644" windowHeight="6024" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="73">
   <si>
     <t>\100</t>
   </si>
@@ -234,6 +236,18 @@
   </si>
   <si>
     <t>Усадьба</t>
+  </si>
+  <si>
+    <t>\200\100</t>
+  </si>
+  <si>
+    <t>\200\200</t>
+  </si>
+  <si>
+    <t>долгосрочно</t>
+  </si>
+  <si>
+    <t>посуточно</t>
   </si>
 </sst>
 </file>
@@ -685,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2006,4 +2020,198 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>